--- a/posts_to_publish.xlsx
+++ b/posts_to_publish.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="478">
   <si>
     <t>Date</t>
   </si>
@@ -4065,23 +4065,2242 @@
   <si>
     <t>2025-02-16</t>
   </si>
+  <si>
+    <t>00:30
+Je vais te faire courir sur la piste, les gars levez vos mains et les filles touchez vos orteils
+00:35
+Je suis sur le point d'enflammer la piste, s'ils nous laissent pas entrer on défoncera la porte
+00:40
+Je sais que tu veux rester près de moi, appelle-moi et on pourra peut-être rester discrets
+00:45
+On s'en ira d'ici et s'ils te voient partir avec moi, ils savent que tu rentres pas chez toi
+00:52
+Je te donnerai de l'amour alors peut-être qu'on pourra rester discrets
+00:55
+Chérie dis-moi ce que tu ressens en faisant les choses que t'as faites avec moi ce soir
+01:00
+Je sais que tu veux sortir avec un soldat, nos styles se rapprochent de plus en plus
+01:04
+Je garde mes amis près de moi, cours parler de moi aux tiens
+01:09
+Tu bouges ton corps comme un cobra et tu me donnes envie de te montrer
+01:14
+Toutes ces choses que je pourrais faire si t'étais avec moi
+01:18
+Tu me veux toujours avec toi et penses à moi jour et nuit, je peux te faire confiance
+01:23
+Je sais que tu veux briller et que tu passes du temps en plus mais je sais ce que tu fais
+01:28
+Tu veux juste vivre ma vie depuis le début, si tu l'aimes tu voudras jamais la lâcher
+01:33
+Tout ce que je veux c'est vivre ma vie, si t'es avec moi alors je dois te le faire savoir
+01:38
+Je sais que tu veux rester près de moi, appelle-moi et on pourra peut-être rester discrets
+01:44
+On s'en ira d'ici et s'ils te voient partir avec moi, ils savent que tu rentres pas chez toi
+01:50
+Je te donnerai de l'amour alors peut-être qu'on pourra rester discrets
+01:53
+Chérie dis-moi ce que tu ressens en faisant les choses que t'as faites avec moi ce soir
+01:58
+Je vais te faire courir sur la piste, les gars levez vos mains et les filles touchez vos orteils
+02:03
+Je suis sur le point d'enflammer la piste, s'ils nous laissent pas entrer on défoncera la porte
+02:07
+Je suis pas commercial, je suis qu'un malvoyant qui sirote du purple
+02:12
+J'ai rien à perdre, chaussettes à 50 $ et chaussures à 100 000 $
+02:17
+Alors même si elle est un peu grossière, je la ferai passer et lui montrerai ce qu'un rider fait
+02:22
+Elle pensait ne jamais trouver un mec avec autant d'ambition, je suis toujours partant
+02:26
+Je suis toujours à fond, je suis Rick James le gangster qui explose le game
+02:32
+C'est rien qu'un cerveau malade, je t'ai au premier rang comme Spike à un match des Knicks
+02:36
+A mes côtés dans la grosse range, la belle vaut bien des diamants sur une super chaine
+02:42
+Je sais que tu meurs d'envie de voir ce que tu vaux en roulant avec moi
+02:46
+Chérie t'arrêtes pas avant la fin, une montre, un flingue et une Rover
+02:51
+Je sais que t'as entendu parler de moi, c'est obligé
+02:56
+Tu veux voir ce qu'ils t'ont dit et je te le montrerai encore et encore
+03:01
+Il est temps de partir mais tu le feras pas car tu veux pas me quitter
+03:05
+Tu me veux toujours avec toi et penses à moi jour et nuit, je peux te faire confiance
+03:10
+Je sais que tu veux briller et que tu passes du temps en plus mais je sais ce que tu fais
+03:15
+Tu veux juste vivre ma vie depuis le début, si tu l'aimes tu voudras jamais la lâcher
+03:20
+Tout ce que je veux c'est vivre ma vie, si t'es avec moi alors je dois te le faire savoir
+03:25
+Je sais que tu veux rester près de moi, appelle-moi et on pourra peut-être rester discrets
+03:30
+On s'en ira d'ici et s'ils te voient partir avec moi, ils savent que tu rentres pas chez toi
+03:37
+Je te donnerai de l'amour alors peut-être qu'on pourra rester discrets
+03:40
+Chérie dis-moi ce que tu ressens en faisant les choses que t'as faites avec moi ce soir
+03:44
+Je sais que tu veux rester près de moi, appelle-moi et on pourra peut-être rester discrets
+03:50
+On s'en ira d'ici et s'ils te voient partir avec moi, ils savent que tu rentres pas chez toi
+03:56
+Je te donnerai de l'amour alors peut-être qu'on pourra rester discrets
+03:59
+Chérie dis-moi ce que tu ressens en faisant les choses que t'as faites avec moi ce soir
+04:04
+Je vais te faire courir sur la piste, les gars levez vos mains et les filles touchez vos orteils
+04:09
+Je suis sur le point d'enflammer la piste, s'ils nous laissent pas entrer on défoncera la porte</t>
+  </si>
+  <si>
+    <t>Massari feat Belly - Rush The Floor</t>
+  </si>
+  <si>
+    <t>00:43
+On n'a pas accroché la première nuit mais t'es si séduisante
+00:50
+On n'a pas accroché à l'époque mais maintenant je te veux
+00:55
+Pour moi c'est du pur désir
+00:58
+Si le coeur s'emballe tout le corps dit "Ah-ooh-ah"
+01:04
+Je veux faire de toi ma petite amie
+01:09
+En attendant la fin du monde, Badman te mérite
+01:14
+Je peux acheter des Birkins pour toi, c'est certain
+01:19
+J'ai cherché encore et encore
+01:23
+Woah, woah, ah et je te veux
+01:29
+Je te veux
+01:34
+Je te veux
+01:39
+Je te veux
+01:44
+Je te veux
+01:46
+J'ai essayé le premier soir
+01:49
+Je t'ai tendu la main et laissé ma fierté de côté
+01:55
+J'ai une bouteille de Tequila que je peux servir pour toi et je dis pas non ce soir
+02:03
+Pendant que tu danses je vais te serrer fort car tu sais à quel point je te veux
+02:09
+Parfois j'ai l'impression d'avoir besoin de toi
+02:13
+C'est la pression de l'amour
+02:18
+Pour moi c'est du pur désir
+02:21
+Si le coeur s'emballe tout le corps dit "Ah-ooh-ah"
+02:27
+Je veux faire de toi ma petite amie
+02:31
+En attendant la fin du monde, Badman te mérite
+02:36
+Je peux acheter des Birkins pour toi, c'est certain
+02:42
+J'ai cherché encore et encore
+02:45
+Woah, woah, ah et je te veux
+03:35
+Ces gars ils sont là à jouer les durs
+03:41
+Ils viendront au club avec tout ce qu'il faut dans les poches
+03:51
+C'est pourquoi on peut le faire encore et encore
+03:57
+Car pour eux c'est juste une autre nuit
+04:04
+Mais pour nous c'est qu'une question de fric</t>
+  </si>
+  <si>
+    <t>PartyNextDoor - For Certain</t>
+  </si>
+  <si>
+    <t>00:19
+Est-ce qu'elle sait pour celui qui est à tes côtés ?
+00:24
+Est-ce qu'elle sait les choses que tu essaies de cacher ?
+00:30
+Est-ce qu'elle sait pour celui qui veut te tuer dans ton sommeil ?
+00:35
+Est-ce qu'elle sait que tu t'es fourré dans une belle merde ?
+00:40
+Est-ce qu'elle sait ?
+00:45
+Est-ce qu'elle sait ?
+00:48
+Elle sait
+00:51
+Est-ce qu'elle sait pour la folle qui te veut mort et enterré ?
+00:56
+Est-ce qu'elle sait qu'elle est dans ton coeur et pas seule ?
+01:02
+Cette merde touche les fans, Seigneur ça faisait pas partie du plan
+01:08
+Tu pensais être le bon, c'est fini maintenant qu'ils t'ont attrapé les mains en sang
+01:13
+Tu vas et viens, t'es cerné et mort ou vif ils veulent la prime
+01:18
+T'as essayé de le lui cacher mais elle l'a découvert, on va se retrouver dans de sales draps
+01:24
+Qui penses-tu berner ? T'as été trop stupide et irresponsable
+01:29
+Putain t'as été à l'école ils t'ont pas appris à ne pas faire ça, t'as pas regardé la check-list
+01:34
+Tu aurais du être mieux informé
+01:38
+Car tu l'as laissée entrer, maintenant elle a gagné et tu t'es piégé toi-même
+01:44
+Est-ce qu'elle sait pour celui qui est à tes côtés ?
+01:50
+Est-ce qu'elle sait les choses que tu essaies de cacher ?
+01:55
+Est-ce qu'elle sait pour celui qui veut te tuer dans ton sommeil ?
+02:00
+Est-ce qu'elle sait que tu t'es fourré dans une belle merde ?
+02:06
+Est-ce qu'elle sait ?
+02:11
+Est-ce qu'elle sait ?
+02:14
+Elle sait
+02:16
+Est-ce qu'elle sait pour la folle qui te veut mort et enterré ?
+02:22
+Est-ce qu'elle sait qu'elle est dans ton coeur et pas seule ?
+02:27
+Est-ce qu'elle sait ?
+03:10
+Est-ce qu'elle sait pour celui qui est à tes côtés ?
+03:15
+Est-ce qu'elle sait les choses que tu essaies de cacher ?
+03:20
+Est-ce qu'elle sait pour celui qui veut te tuer dans ton sommeil ?
+03:26
+Est-ce qu'elle sait que tu t'es fourré dans une belle merde ?
+03:31
+Est-ce qu'elle sait ?
+03:36
+Est-ce qu'elle sait ?
+03:39
+Elle sait
+03:42
+Est-ce qu'elle sait pour la folle qui te veut mort et enterré ?
+03:47
+Est-ce qu'elle sait qu'elle est dans ton coeur et pas seule ?
+03:52
+Est-ce qu'elle sait ?</t>
+  </si>
+  <si>
+    <t>T Pain - Does she know ?</t>
+  </si>
+  <si>
+    <t>00:09
+Ce flow de 1994, des Timbs couleur crème dans ma garde-robe, un bandana noir et un 9mm à la ceinture
+00:17
+Le jeune Snoop Dogg au micro des Source Award, la maison que Dre a construite je l'ai volée à Suge avant qu'elle ne soit saisie
+00:23
+Seul le Seigneur sait que tu copies mon style, subliminaux des non-criminels je t'étranglerai au procès
+00:28
+Ça fait un moment que j'ai pas sorti des bars comme ça
+00:31
+Que je me suis garé les portes ouvertes et t'ai montré des voitures comme ça
+00:34
+La dernière fois que je l'ai fait 50 et moi étions dans le même groupe, Eminem et moi étions dans le même studio
+00:40
+Dre et moi étions sur Cedar Block à prendre des photos du même coupé
+00:43
+Aujourd'hui tous ces négros racontent des histoires bidons
+00:46
+Tu baises ces putes et manges cette chatte jusqu'à avoir le visage bleu, t'as la langue bien pendue et t'es comme T-Pain
+00:52
+Puisqu'on en parle je l'ai faite monter et descendre comme le NASDAQ
+00:55
+Tu sais que c'est vrai vu les cicatrices de la chirurgie entre les fesses
+00:58
+Je suis dans cette Chevrolet rouge avec mon bandana rouge, mes mains ne transpirent jamais et je tiens fermement le Draco
+01:04
+Le fantôme de Makaveli et le couplet mortel, Compton sur le ventre je prouve que t'as déjà perdu
+01:10
+Tu tires à l'aveugle je vise ton cou, je vais te voler tes bijoux et emmener ces salopes aux ESPYs
+01:15
+J'ai toujours des fragments dans la poitrine et les balles ne m'affectent pas
+01:18
+Compton sur le ventre je prouve que t'as déjà perdu
+01:21
+Je suis dans cette Chevrolet rouge avec mon bandana rouge, mes mains ne transpirent jamais et je tiens fermement le Draco
+01:27
+Le fantôme de Makaveli et le couplet mortel, Compton sur le ventre je prouve que t'as déjà perdu
+01:33
+Tu tires à l'aveugle je vise ton cou, je vais te voler tes bijoux et emmener ces salopes aux ESPYs
+01:39
+J'ai toujours des fragments dans la poitrine et les balles ne m'affectent pas
+01:42
+Compton sur le ventre je prouve que t'as déjà perdu</t>
+  </si>
+  <si>
+    <t>The Game - Bosco Freestyle</t>
+  </si>
+  <si>
+    <t>00:04
+Beaucoup de gens me demandent si j'ai peur de la mort
+00:10
+En fait je pense que ce qui m'effraie le plus
+00:15
+C'est de plus pouvoir te dire les choses que je veux te dire quand je serai plus là
+00:23
+Alors cette chanson est pour Hailie pour quand ce jour viendra
+00:27
+Où est Hailie ? Où est-elle ?
+00:31
+C'est pas Hailie - Qui c'est ?
+00:34
+C'est un monstre
+00:38
+J'ai attendu toute la nuit que le soleil se lève pour faire disparaître le ciel sombre
+00:45
+T'es le papa monstre, eux sont les bébés monstres et moi je suis la maman monstre
+00:51
+Tout ce qu'il faut parfois c'est un nouveau jour pour que je sois dans un meilleur état d'esprit
+00:57
+Donne-moi un baiser le monstre, je t'aime
+01:01
+Si je pouvais juste m'endormir je serais perdue dans un rêve mais pour l'instant c'est la misère
+01:11
+Et je dois juste me souvenir
+01:14
+Que lorsqu'un coeur se brise il n'est pas brisé pour toujours et que les morceaux se recollent
+01:21
+Et avec le temps, j'irai bien car les larmes sont temporaires
+01:27
+Hailie Jade je t'ai écrit cette chanson pour t'aider à faire face à la vie maintenant que je suis plus là
+01:32
+Par quoi commencer ? Je veux juste te dire de veiller sur Alaina, Stevie et Oncle Nate
+01:37
+Et chérie sois forte, je sais que j'étais ton roc
+01:41
+Je le suis toujours, dire au revoir n'est jamais facile mais pourquoi tu pleures ? Arrête
+01:47
+Hailie, bébé sèche tes yeux c'est pas pour toujours
+01:51
+Quand un coeur se brise il n'est pas brisé pour toujours et les morceaux se recollent
+01:57
+Et avec le temps, j'irai bien car les larmes sont temporaires
+02:02
+Papa - Quoi ?
+02:05
+Quand j'avais l'habitude d'avoir ça quand j'étais un petit enfant
+02:10
+Bébé, ça va ?
+02:14
+Tu peux te souvenir de moi et aller de l'avant en m'écoutant en boucle sur une chanson
+02:19
+Mais t'avise pas de verser une larme, qu'est-ce que je t'ai dit ? "Redresse-toi petit soldat" quand t'étais dans mes bras
+02:26
+Jade ça va aller je suis là, je te regarde en ce moment baby girl je le jure
+02:32
+Je te protégerai tel ton ange gardien, bien que ça puisse paraître difficile notre séparation est douloureuse
+02:38
+Et la pluie te rendra folle pourtant tu resteras forte, Hailie accroche-toi
+02:42
+Ça sera pas trop long, j'ai besoin que tu ailles de l'avant
+02:47
+Et souviens-toi ça va s'arranger car le temps guérit
+02:51
+Quand un coeur se brise il n'est pas brisé pour toujours et les morceaux se recollent
+02:57
+Et avec le temps, j'irai bien car les larmes sont temporaires
+03:02
+Les mauvais jours commenceront à s'améliorer et on rigolera ensemble
+03:09
+Et ce soir, quand je pleure les larmes sont temporaires
+03:14
+Je connais cette grande fille et elle est vraiment jolie
+03:19
+Tu sais comment elle s'appelle ? - Hailie
+03:21
+Hailie, comment tu le sais ?
+03:25
+S'il y a des jours où tu veux t'enfermer dans ta chambre et pleurer pense un peu quand t'étais petite
+03:32
+Quand on roulait pour aller au studio, t'étais attachée sur le siège arrière car t'étais ma petite acolyte
+03:40
+Chérie je sais que ça fait mal, Bean je souhaite que ta douleur disparaisse
+03:44
+N'oublie pas ça, Hailie Jade
+03:45
+Il y aura des jours de pluie, je te promets que tu les surmonteras et que tu t'en sortiras malgré tout
+03:50
+Putain Jade je vais être honnête, je savais que tu prendrais ça très mal
+03:53
+Lève-toi, je sais que ça te brise le coeur car c'est la chose la plus difficile que j'aie jamais écrite
+03:58
+Hailie mon coeur c'est bien pour toi de me laisser partir
+04:02
+Quand un coeur se brise il n'est pas brisé pour toujours et les morceaux se recollent
+04:09
+Et avec le temps, j'irai bien car les larmes sont temporaires
+04:15
+Les mauvais jours commenceront à s'améliorer et on rigolera ensemble
+04:20
+Et ce soir, quand je pleure les larmes sont temporaires
+04:27
+Quelle est ta chanson préférée ?
+04:29
+Ma chanson préférée
+04:32
+Ma chanson préférée et la tienne, mais
+04:34
+J'aime cette partie, c'est ta partie préférée papa
+04:38
+Tu m'enregistres salope - Je t'ai enregistré en train de jurer
+04:45
+Tu entends ? - Oui
+04:48
+Non salope - Non quoi ?
+04:51
+Non j'ai dit "Non, salope"
+04:55
+Ok, pas de jurons</t>
+  </si>
+  <si>
+    <t>00:55
+A chaque seconde, à chaque minute je te jure que tu peux l'avoir
+00:59
+Je demande à toutes les belles salopes de mettre vos mains en l’air
+01:03
+Vos mains en l'air
+01:06
+Eteins la lumière et mets moi dans l’ambiance
+01:11
+Je parle de chambre sombre et parfum
+01:17
+Je reconnais ton parfum, tu n’as même pas à parler
+01:20
+Je sais que tu as des goûts de luxe, tu es difficile à satisfaire
+01:24
+Toutes les autres sont banales alors que toi tu vis au jour le jour
+01:27
+On laisse faire le hasard
+01:30
+Me croirais-tu si je te disais que je suis une fleur qui a poussé dans le noir ?
+01:34
+Je te dédicace ces poèmes que j’écris dans mes chansons
+01:38
+Quand tu fais preuve d’empathie j’écris avec mon sang
+01:42
+Encore mieux : Où sont tes amis ? Je veux tous les connaitre
+01:46
+Je veux te rendre fier, sors le champagne
+01:49
+C’est une nuit triste quand tu t’énerves
+01:51
+Tu as appelé ton amie et vous avez parlez dans la Range Rover
+01:56
+Mais elle veut sortir faire la fête
+01:59
+Ne l’approche pas avec ces méthodes de drague
+02:02
+Ils disent que la conversation fait marcher une nation, je suis d'accord
+02:06
+Mais je ne pourrais jamais réparer mes erreurs à moins que je ne les écrive pour de vrai, PS :
+02:12
+Tu peux l'avoir
+02:16
+Et je sais ce que tu veux
+02:20
+C’est un coup du hasard, écris ça dans une chanson
+02:26
+Tu peux l'avoir
+02:30
+Et je sais ce que tu veux
+02:34
+C’est un coup du hasard, écris ça dans une chanson
+02:40
+J’espère vraiment que tu écoutes parce que tu m’impatientes
+02:45
+Avec toutes ces photos sexy de toi en vacance
+02:48
+C’est beaucoup à supporter et ça n'a aucun sens
+02:52
+Jeune fille d’Afrique de l’est, tu es trop occupé à baiser ton autre mec
+02:56
+J’essayais de te faire rentrer dans le jeu et t'emmener toi et ta mère dans ton pays
+02:59
+Quand tu te rendras compte que tu as besoin de quelqu’un
+03:02
+Et que c’est parfait dans cette ville
+03:04
+Et que tu ne fuiras pas l’endroit d’où tu viens
+03:07
+On dirait un coup du hasard
+03:09
+Cette vie était nouvelle pour toi mais tu t’es adaptée
+03:13
+Je dédicace ces poèmes dans mes chansons au sexe fun
+03:17
+Tes cheveux naturels, ta peau douce et ce gros cul dans ta robe d’été
+03:21
+Mon dieu, pourquoi tu marches comme ça ?
+03:24
+Quand je vois ce cul bouger, j’aimerais qu’on se dispute moins et qu’on parle plus
+03:28
+La conversation sauve un couple
+03:30
+Mais je ne pourrais jamais réparer mes erreurs à moins que je ne les écrive pour de vrai, PS :
+03:37
+Tu peux l'avoir
+03:40
+Et je sais ce que tu veux
+03:45
+C’est un coup du hasard, écris ça dans une chanson
+03:51
+Tu peux l'avoir
+03:55
+Et je sais ce que tu veux
+03:59
+C’est un coup du hasard, écris ça dans une chanson
+04:06
+A chaque fois que j’écris ces mots ils deviennent tabous
+04:10
+Je fais en sorte que ma ponctuation soit juste, que chaque lettre soit vraie
+04:13
+Je suis un marginal et cette métaphore en est la preuve
+04:16
+Je parle d’un coup du destin
+04:20
+Me croirais tu si je te disais que je suis une fleur qui a poussé dans le noir ?
+04:24
+Tu dois entendre ça, aimer n’est pas qu’un verbe
+04:27
+C’est toi te regardant dans le miroir, toi qui le veut
+04:31
+Traite moi de fou, on peut tous les deux être fous
+04:34
+Les crimes passionnels sont quelque chose de commun et on a la douleur en commun
+04:38
+Tu dois entendre ça, l’amour n’est pas qu’un verbe
+04:41
+Je peux voir arriver les problèmes, tu es excitée quand tu es bourrée
+04:45
+J’entends un son régulier, c’est ton cœur
+04:50
+Soit il m’a attrapé, soit il m’a appelé
+04:52
+Respire lentement et tu trouveras de l’or dans ces lignes
+04:56
+Cordialement, et juste avant que tu ne deviennes aveugle, PS :</t>
+  </si>
+  <si>
+    <t>00:09
+Pour une fois dans ma vie je vais faire un vrai changement
+00:17
+Ça va me faire vraiment du bien
+00:20
+Ça va faire une différence
+00:22
+Ça va me rendre heureux
+00:27
+Alors que je retourne le col de mon manteau d'hiver préféré
+00:34
+Ce vent bouleverse mon esprit
+00:37
+Je vois les gamins dans la rue qui n'ont pas assez à manger
+00:42
+Qui suis-je pour être aveugle ?
+00:44
+Et prétendre ne pas voir leurs besoins
+00:48
+L'indifférence d'un été
+00:50
+Une bouteille cassée et le reste d'une âme
+00:56
+Ils se suivent dans le vent
+01:01
+Car ils n'ont nulle part où aller
+01:04
+C'est pour ça ce je veux que tu saches :
+01:07
+Je commence avec l'homme dans le miroir
+01:12
+Je lui demande de changer ses habitudes
+01:16
+Et aucun message n'aurait pu être plus clair :
+01:21
+Si tu veux faire du monde un endroit meilleur
+01:23
+Jette un oeil sur toi-même et change !
+01:35
+J'ai été victime d'une sorte d'amour égoïste
+01:40
+Il est temps que je réalise
+01:44
+Qu'il y en a qui sont sans abris
+01:47
+Pas un centime à donner, est-ce que c'est ça prétendre qu'ils ne sont pas seuls ?
+01:55
+Un saule pleureur profondément marqué
+01:58
+Le coeur brisé et des rêves envolés
+02:04
+Ils suivent le chemin que trace le vent
+02:08
+Car ils n'ont aucun endroit pour vivre
+02:12
+C'est pourquoi je commence avec moi-même !
+02:15
+Je commence avec l'homme dans le miroir
+02:19
+Je lui demande de changer ses habitudes
+02:24
+Et aucun message n'aurait pu être plus clair :
+02:28
+Si tu veux faire du monde un endroit meilleur
+02:30
+Jette un oeil sur toi-même et change !
+02:33
+Je commence avec l'homme dans le miroir
+02:38
+Je lui demande de changer ses habitudes
+02:43
+Et aucun message n'aurait pu être plus clair :
+02:47
+Si tu veux faire du monde un endroit meilleur
+02:50
+Jette un oeil sur toi-même et change !
+02:53
+Je commence avec l'homme dans le miroir
+02:57
+Je lui demande de changer ses habitudes
+03:02
+Et aucun message n'aurait pu être plus clair :
+03:06
+Si tu veux faire du monde un endroit meilleur
+03:09
+Jette un oeil sur toi-même et change
+03:11
+Tu devrais le faire pendant que tu as le temps
+03:14
+Parce que lorsque tu renfermes ton coeur tu renfermes ton esprit !
+03:17
+Cet homme
+03:18
+Cet homme dans le miroir
+03:20
+Cet homme
+03:26
+Aucun message n'aurait pu etre plus clair
+03:30
+Si tu veux faire du monde un endroit meilleur
+03:33
+Jette un oeil sur toi-même et change !
+03:54
+Je vais faire un changement
+03:58
+Ça va faire du bien !
+04:00
+Viens
+04:01
+Change
+04:03
+Remue-toi
+04:05
+Tu sais que tu dois arrêter ça par toi-même
+04:11
+Fais ce changement !
+04:13
+Je dois changer aujourd'hui
+04:16
+L'homme dans le miroir
+04:18
+Tu dois ne pas te laisser faire mon frère
+04:26
+Je dois attraper cet homme
+04:30
+Tu dois bouger
+04:33
+Viens, tu dois te lever
+04:39
+Lève-toi, fais ce changement
+04:42
+Lève-toi et bouge tout de suite</t>
+  </si>
+  <si>
+    <t>Michael Jackson - Man in the mirror</t>
+  </si>
+  <si>
+    <t>00:29
+La seule chose qui te sauve
+00:34
+C'est le coeur d'une femme
+00:39
+Yeah
+00:43
+La seule chose qui te sauve
+00:49
+C'est le coeur d'une femme
+00:54
+Hey, yeah
+00:58
+La question est pourquoi je fais les choses que je fais ?
+01:02
+Réponse que je trouverai peut-être jamais mais je te choisirai toujours
+01:06
+Je veux te quitter mais je sais que je peux pas
+01:09
+J'ai rejeté la faute sur moi pour t'avoir donné chance après chance
+01:13
+Je suis amoureuse de toi mais supporte mal tes manières et j'essaie d'être forte mais jusqu'à quel point ?
+01:19
+Je vais croire ce que tu me dis cette fois-ci et j'espère que tu mens pas car :
+01:28
+La seule chose qui te sauve
+01:34
+C'est le coeur d'une femme
+01:39
+Yeah
+01:43
+La seule chose qui te sauve
+01:48
+C'est le coeur d'une femme
+01:53
+Hey, yeah
+01:57
+C'est mon esprit et mon âme contre ta fierté
+02:00
+Calme ton ego car j'ai mis le mien de côté juste pour que tu te sentes à l'aise
+02:08
+Noyée dans mes émotions, je t'ai laissé dériver dans mon océan
+02:12
+Je suis amoureuse de toi mais supporte mal tes manières et j'essaie d'être forte mais jusqu'à quel point ?
+02:18
+Je vais croire ce que tu me dis cette fois-ci et j'espère que tu mens pas car :
+02:27
+La seule chose qui te sauve
+02:33
+C'est le coeur d'une femme
+02:37
+Oh-oh, oh-oh, oh-oh-oh-oh, oh-oh
+02:42
+La seule chose qui te sauve
+02:47
+C'est le coeur d'une femme</t>
+  </si>
+  <si>
+    <t>Summer Walker - Heart of a woman</t>
+  </si>
+  <si>
+    <t>00:32
+On a commencé en lavant les sols
+00:35
+Et maintenant on est au premier rang pour recevoir les awards
+00:39
+Je suis le numéro 1 de ces 20 dernières années
+00:41
+Si tu es un vrai lève ton verre
+00:44
+Si tu es un vrai lève ton verre
+00:47
+C'est comme ça
+00:49
+Il voulait briller au Swap Meet
+00:52
+Puis les blancs l'ont mis en avant
+00:55
+Je n'aime que les cheveux longs
+00:57
+Tu devrais écouter ce beat avec mes casques
+01:00
+J'ai beaucoup de fric, je suis le numéro 1 depuis 20 ans
+01:04
+J'ai fait ma place, je suis Andre Young
+01:06
+Je possède un avion G5 et une Impala 64
+01:09
+J'achète une paire de Louboutin aux bonnes salopes
+01:11
+Bonne weed, bonnes maisons, argent légal
+01:14
+Je vise bien avec mon Tech 9
+01:17
+Une Bentley, un yacht et un hélicoptère
+01:20
+Je suis né fauché, un vrai négro tout droit sorti de Compton
+01:23
+Qu'est ce que ces critiques veulent de moi ?
+01:25
+Je réécris le game, maintenant parlons argent
+01:28
+Je m'habille tout en noir comme Al Capone
+01:30
+J'ai construit une maison pendant que toi tu loues
+01:33
+Je n'aime que les cheveux longs
+01:36
+Tu devrais écouter ce beat avec mes casques
+01:48
+J'ai fait du chemin dans le trafic de beuh
+01:52
+Je paye 20 000$ pour assister à un match des Heat
+01:55
+Et je suis toujours armé mec
+01:58
+On peut pas me marcher dessus
+02:00
+J'ai 80 paires qui viennent de la drogue
+02:03
+Mon cousin était un Crip, il disait être un C
+02:06
+J'ai un paquet de fric dans mon sac
+02:09
+Je les nique tous, on va les tuer et partir
+02:11
+Un ami cuisine du crack dans la cuisine de sa mère et dit qu'il le fait pour payer l'école des son fils
+02:18
+Les rêves deviennent réalité
+02:20
+J'ai trébuché mais je ne suis jamais tombé, je m'appuie sur mon pistolet
+02:23
+J'aime seulement les gros culs
+02:25
+On devrait écouter cette track dans ma Maybach
+02:28
+J'essaie juste de devenir milliardaire
+02:30
+Viens et suce ma bite pour devenir millionnaire
+02:37
+C'est juste différent
+02:39
+Je sais que ça semble différent
+02:44
+Je l'aime seulement si ses yeux sont marrons
+02:47
+Ecoute ce son pendant que tu fais l'idiot avec ma couronne
+02:50
+King H-O, vous devriez tous le savoir maintenant
+02:53
+Mais si tu ne le sais pas
+02:55
+J'ai des millions de dollars sur mes murs dans chaque pièce
+02:58
+Ils ne peuvent pas s'offrir la chambre de ma fille
+03:01
+Ni être à la place de ma fille
+03:03
+Bansky, Basquiat
+03:05
+J'ai déjà dépensé les 150 millions de dollars que LiveNation m'avait donné
+03:09
+Pour mon prochain contrat ils parlent de 250 millions
+03:13
+Je veux 300 mais je suis d'accord à 275
+03:17
+Je suis un ancien trafiquant, je devais trouver une place pour me garer mais maintenant j'ai mon parking
+03:23
+J'aime bien les extensions, je suis un mec du ghetto je n'y peux rien
+03:28
+J'ai baisé ton ex dans ma BM
+03:30
+Je me balade dans certains endroits trop cher pour toi
+03:34
+Je crie "carpe diem" jusqu'à ce que je sois un poète mort, moi aussi je mérite un golden globe
+03:39
+Je commande du champagne, pas besoin de garder ça Khaled c'est juste un freestyle
+03:45
+Nique l'argent du rap, je me suis fait plus avec la drogue
+03:48
+Nique l'argent des concerts, je le dépense en décoration
+03:50
+Je ferme les rideaux, je vous emmerde, hors de ma vue
+03:53
+Je vends de la coke, je laisse l'avocat remporter l'affaire
+03:56
+Ils veulent m'assassiner parce que j'ai tué le magasin Hermes, que quelqu'un m'aide
+04:01
+Je déchire tout
+04:04
+Putain ! Je déchire tout
+04:09
+J'allais chez TJ Maxx en 83, je ne sais même pas si c'était ouvert à cette époque
+04:15
+Je ne connaissais pas encore Oprah
+04:18
+Lorsque j'avais la moto XL 80 le moteur rugissait, ils criaient "putain ! " quand j'arrivais avec
+04:24
+J'avais déjà des dents en argent en 1988, tous ces mecs sont en retard
+04:28
+T'as tout enregistré hein ?
+04:32
+J'aime ce son comme ma propre fille
+04:34
+Pulvérisons ces mecs bébé comme papa te l'a appris
+04:38
+Petit, c'est juste différent</t>
+  </si>
+  <si>
+    <t>00:20
+7h30 du soir
+00:30
+Chaque fois que tu viens ça me me fout les frissons
+00:35
+Tu apaises mon esprit et remets tout dans l'ordre
+00:38
+Je me fais du mal pour ces commentaires
+00:41
+J'en deviens insensible, c'est trop stupide
+00:45
+Ca me fout les frissons à chaque fois !
+00:48
+J'ai besoin d'une pause, mettre ça de côté
+00:52
+Ca me fout les frissons à chaque fois
+00:55
+Quand t'es pas là
+00:57
+Quand tu mets notre relation de côté
+01:00
+Ca me fout les frissons à chaque fois
+01:02
+7-1-3
+01:04
+Je roule dans le 2-8-1, pourquoi ils en ont après moi ?
+01:07
+Je plane, je bois tranquillement
+01:11
+Je bois tranquillement au Onyx
+01:15
+Quand j'arrive près de toi
+01:17
+Pop Star, Lil Mariah
+01:19
+Quand je drague par message, c'est sauvage
+01:21
+Je mets une liasse sur la Bible
+01:23
+Pas de Snapchat ou de Molly
+01:25
+Elle vient à la soirée avec ses copines
+01:28
+On est tout en haut à Doheny
+01:31
+Je peux pas toutes vous baiser
+01:35
+Quand je suis avec l'équipe je peux pas faire de mal
+01:39
+Je suis intouchable ici, vérifie tes sources
+01:42
+Ils vont t'arriver dessus
+01:46
+On va faire des choses que tu ne peux pas comprendre
+01:50
+Car on est à un endroit où tu ne peux pas rester
+01:53
+Tu ne peux pas y aller
+01:57
+Eloigne-toi de moi
+02:06
+Chaque fois que tu viens ça me me fout les frissons
+02:11
+Tu apaises mon esprit et remets tout dans l'ordre
+02:14
+Je me fais du mal pour ces commentaires
+02:17
+J'en deviens insensible, c'est trop stupide
+02:21
+Ca me fout les frissons à chaque fois !
+02:24
+J'ai besoin d'une pause, mettre ça de côté
+02:28
+Ca me fout les frissons à chaque fois
+02:31
+Quand t'es pas là
+02:33
+Quand tu mets notre relation de côté
+02:36
+Ca me fout les frissons à chaque fois
+02:38
+Je veux que t'appuies sur j'aime
+02:41
+Je veux le feu vert
+02:43
+Je veux qu'on m'appelle
+02:46
+Je veux prendre cette escapade
+02:48
+Je vais le faire
+02:49
+Je veux le feu vert, je veux être aimée"
+02:52
+Ma chère ne sois pas si émotionnelle
+02:54
+Je me remémore des moments et encaisse plus de fric
+02:56
+Je peux acheter le bâtiment puis le brûler, prendre ta pute, reconstruire le bâtiment juste pour m'amuser
+03:00
+Je peux justifier mon amour pour toi et toucher le ciel pour que Dieu arrête la guerre
+03:03
+Mettre cette chatte sur un piédestal
+03:05
+Sur des grands chevaux
+03:07
+Une chatte à en mourir
+03:09
+Une chatte à en mourir !
+03:11
+Les chaussettes de l'archi-duchesse sont-elles sèches ?
+03:13
+Je vais tester ton cerveau et remettre ton coeur
+03:15
+Les mauvaises choses se dissipent et on fait des grosses soirées
+03:17
+Ces diamants sont à toi, la coupé pour l'éternité
+03:18
+Mon meilleur coup pourrait durer pour l'éternité
+03:21
+Chaque fois que tu viens ça me me fout les frissons
+03:24
+Tu apaises mon esprit et remets tout dans l'ordre
+03:28
+Je me fais du mal pour ces commentaires
+03:30
+J'en deviens insensible, c'est trop stupide
+03:35
+Ca me fout les frissons à chaque fois !
+03:38
+J'ai besoin d'une pause, mettre ça de côté
+03:41
+Ca me fout les frissons à chaque fois
+03:45
+Quand t'es pas là
+03:47
+Quand tu mets notre relation de côté
+03:50
+Ca me fout les frissons à chaque fois</t>
+  </si>
+  <si>
+    <t>Doja cat - Woman</t>
+  </si>
+  <si>
+    <t>00:20
+L’amour, parlons de l’amour
+00:24
+C’est ce que t’espérais trouver par dessus tout ?
+00:28
+Ou est-ce que ce sentiment te hante ?
+00:33
+Je sais que ça te hante
+00:38
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+00:44
+Toutes les étoiles se rapprochent
+00:49
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+00:54
+Toutes les étoiles se rapprochent
+00:58
+Dis-moi ce que tu vas faire pour moi ?
+01:01
+La confrontation ça n’a rien de nouveau pour moi
+01:03
+Tu peux ramener un flingue, une épée, une morgue mais tu ne peux pas faire éclater la vérité pour moi
+01:08
+Allez vous faire foutre avec toutes vos attentes
+01:10
+Je ne veux même pas de vos félicitations
+01:13
+Je te perçois comme ayant de l’assurance avec toutes tes promesses calculées pendant qu'on discute
+01:18
+Je déteste les gens qui se croient tout permis
+01:20
+Tu me regardes mal parce que je ne t'ai pas invité
+01:23
+Oh t’es important ? T’es la morale de l’histoire ? T’insistes ?
+01:26
+Fils de pute je t’apprécie même pas, t’as cru corrompre mon coeur avec un cadeau
+01:30
+C’est là que tu vois à qui t’as à faire
+01:33
+Il y a peu de gens avec qui je travaille
+01:35
+Je veux le mérite que je perdre ou que je gagne, sur la vie de ma mère c’est ce qu’il y a de plus dur
+01:40
+L’amour, parlons de l’amour
+01:43
+C’est ce que t’espérais trouver par dessus tout ?
+01:47
+Ou est-ce que ce sentiment te hante ?
+01:52
+Je sais que ça te hante
+01:58
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+02:04
+Toutes les étoiles se rapprochent
+02:08
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+02:14
+Toutes les étoiles se rapprochent
+02:18
+La peau recouverte d’égo, tu te mets à parler comme si c’était fini
+02:23
+Dans cette déception amoureuse, il n’y a pas de contrôle, pas de bouton « stop » dans la manière dont tu me rabaisses
+02:30
+Ça t’excite, t’approche pas de moi
+02:33
+Je sais que tu vas dire de la merde, ne m’approche pas
+02:35
+Ça ne va pas du tout, t’approche pas de moi
+02:38
+Je pleure sans raison, je prie sans raison
+02:41
+Je remercie juste Dieu pour la vie, pour ce jour, pour ces heures et pour cette autre vie
+02:49
+Comment faire pour que ça passe et se sentir bien ?
+02:52
+Tu pourrais vivre pleinement si tu te sens mal
+02:54
+Mieux vaut vivre ta vie, on n'a plus le temps
+02:59
+L’amour, parlons de l’amour
+03:03
+C’est ce que t’espérais trouver par dessus tout ?
+03:07
+Ou est-ce que ce sentiment te hante ?
+03:11
+Je sais que ça te hante
+03:16
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+03:23
+Toutes les étoiles se rapprochent
+03:28
+C’est peut-être bien durant la nuit que mes rêves pourraient me dire que toutes les étoiles se rapprochent
+03:35
+Toutes les étoiles se rapprochent</t>
+  </si>
+  <si>
+    <t>00:13
+Pourquoi c’est si dur d’accepter que la fête soit terminée ?
+00:18
+T’es venue avec tes nouveaux potes, elle avait son nouveau jean mom et ses nouvelles Vans
+00:22
+Elle est parfaite et je déteste ça, oh je suis si heureuse que t’ai réussi
+00:27
+Je suis tellement contente que tu pourrais passer avec quelqu’un et des tacos, venir avec quelqu’un qu'on s'allume un joint
+00:32
+Regardons le premier épisode de Narcos
+00:35
+Ramène le gin j’ai le jus, ramène le péché j’en ai aussi
+00:38
+Whoa ferme-là juste, tu sais que t’es celui que j’aime
+00:42
+Suis-je assez chaude physiquement pour toi bébé ?
+00:47
+Dis-moi que c’est assez chaud pour toi
+00:49
+Est-ce que c’est assez chaud pour toi quand t’es dans moi ?
+00:56
+Je suis assez chaude physiquement pour toi bébé
+01:01
+Dis-moi que c’est assez chaud pour toi
+01:04
+Assez chaude physiquement, à l’intérieur
+01:11
+Je suis tellement seule, j’oublie ce que je vaux
+01:14
+On est si seuls, on fait comme si ça marchait
+01:18
+J’ai tellement honte de moi, je crois que j’ai besoin d’une thérapie
+01:25
+Je suis désolée, je ne suis pas si belle
+01:27
+Je suis désolée, je suis pas non plus distinguée
+01:29
+Je suis désolée, je ne m’épile pas les jambes le soir
+01:32
+Je suis désolée, je ne suis pas la mère de tes enfants
+01:35
+Je suis désolée ton karma va te revenir en pleine face et je peux rien pour toi
+01:39
+Je suis assez chaude physiquement pour toi bébé
+01:44
+Dis-moi que c’est assez chaud pour toi
+01:47
+Est-ce que c’est assez chaud pour toi quand t’es dans moi ?
+01:53
+Je suis assez chaude pour toi bébé
+01:58
+Dis-moi que c’est assez chaud pour toi
+02:01
+Assez chaude physiquement, à l’intérieur
+02:07
+Excuse-moi j’ai juste besoin de te voir
+02:10
+Désolée d’être pot de colle, je ne suis pas moi quand je suis lourde
+02:15
+Tu veux vraiment m’aimer et te donner à moi comme tu l’as dit ?
+02:21
+Parce que c’est assez dur que tu me traites de la sorte
+02:25
+Je suis assez seule pour te laisser me traiter de la sorte
+02:29
+Est-ce que tu m’aimes vraiment ou tu veux juste me faire l’amour ?
+02:35
+Je suis assez chaude physiquement pour toi bébé
+02:40
+Dis-moi que c’est assez chaud pour toi
+02:43
+Est-ce que c’est assez chaud pour toi quand t’es dans moi ?
+02:50
+Je suis assez chaude pour toi bébé
+02:55
+Dis-moi que c’est assez chaud pour toi
+02:58
+Assez chaude physiquement, à l’intérieur
+03:05
+Assez chaude physiquement, à l’intérieur</t>
+  </si>
+  <si>
+    <t>SZA - Drew Barrymore</t>
+  </si>
+  <si>
+    <t>00:33
+Quelle est cette musique que j'entends à la radio ?
+00:41
+Quelle est cette musique que j'entends partout où je vais ?
+00:49
+Je ne pense pas avoir déjà ressenti un sentiment semblable à celui que je ressens quand j'entends cette musique
+00:57
+Je l'entends dans mon cœur
+01:04
+De temps en temps, l'obscurité s'installe
+01:08
+Pour terroriser les faibles et défier les forts
+01:12
+La tempête arrive, elle s'intensifie dans les ondes
+01:15
+De Johannesburg à Montego Bay
+01:19
+Quelle est cette musique que j'entends à la radio ?
+01:26
+Quelle est cette musique que j'entends partout où je vais ?
+01:34
+Je ne pense pas avoir déjà ressenti un sentiment semblable à celui que je ressens quand j'entends cette musique
+01:42
+Je l'entends dans mon cœur
+01:49
+La justice arrive avec le vent de la tempête
+01:53
+Nous résistons au moment présent pour ceux qui ne sont pas encore nés
+01:57
+La liberté déploie ses ailes tel un oiseau
+02:01
+Et le message qu'elle transmet doit être entendu
+02:04
+Quelle est cette musique que j'entends à la radio ?
+02:10
+Quelle est cette musique que j'entends partout où je vais ?
+02:19
+Je ne pense pas avoir déjà ressenti un sentiment semblable à celui que je ressens quand j'entends cette musique
+02:27
+Je l'entends dans mon cœur
+02:57
+Je l'entends dans mon cœur
+03:05
+De temps en temps, l'obscurité s'installe
+03:09
+Pour terroriser les faibles et défier les forts
+03:12
+La tempête arrive, elle s'intensifie dans les ondes
+03:16
+De Johannesburg à Montego Bay
+03:19
+Quelle est cette musique que j'entends à la radio ?
+03:25
+Quelle est cette musique que j'entends partout où je vais ?
+03:34
+Je ne pense pas avoir déjà entendu une musique comme celle-ci me faire un tel effet
+03:45
+Je l'entends à la radio
+03:48
+Je l'entends partout où je vais
+03:53
+Je ne pense pas avoir déjà entendu une musique comme celle-ci me faire un tel effet
+04:00
+Je l'entends à la radio
+04:03
+Je l'entends partout où je vais
+04:07
+Je ne pense pas avoir déjà entendu une musique comme celle-ci me faire un tel effet
+04:13
+Je l'entends à la radio
+04:17
+Je l'entends partout où je vais</t>
+  </si>
+  <si>
+    <t>Gil Scott Heron - Storm music</t>
+  </si>
+  <si>
+    <t>00:19
+Tu m'as mis dans tous mes états
+00:22
+A me taquiner comme Tisha avec Martin, regarde ce que t'as déclenché
+00:27
+Un béguin d'écolier qui ne restera pas secret, tout le monde le voit donc tu ne peux pas le nier
+00:32
+Mes potes en ont marre de m'entendre parler de toi
+00:35
+Je ne peux pas m'empêcher de chanter ton nom, j'ai l'impression d'être comme un chien en manque
+00:47
+En parlant de ça, j'ai une laisse pour te garder à mes pieds
+00:51
+J'ai mis au point ma stratégie, à la fin de la journée tu ne seras plus en colère contre moi
+00:56
+Tu m'as dit que tu étais célibataire, ok c'est cool on peut juste être amis
+01:01
+Je serais vraiment stupide de déconner car elle est sympa et a un corps de rêve
+01:08
+Je suis au travail mais j'espère qu'il n’y a pas trop de trucs à faire
+01:12
+Je pensais qu'on était juste amis, cependant on s'est embrassé alors dis-moi qu'est-ce qu'on fait ?
+01:17
+Maintenant que t'as attrapé mon coeur pour la soirée
+01:20
+A m'embrasser et te trémousser, tu compliques les choses
+01:23
+Dois-je m'asseoir ou y aller plus fort ? Aide-moi à trouver ma voie
+01:28
+Maintenant que t'as attrapé mon coeur pour la soirée
+01:30
+A m'embrasser et te trémousser, tu compliques les choses
+01:33
+Dois-je m'asseoir ou y aller plus fort ? Aide-moi à trouver ma voie
+01:37
+Mais pourquoi tu t'amuses à faire ça ? Les choses que tu me fais me rendent dingue
+01:42
+Ça me tue juste de penser qu'on était sur le point de conclure et tu as ruiné l'ambiance en un rien de temps
+01:48
+En me parlant de ton prochain mec mais ce négro ne faisait pas parti du plan
+01:53
+A qui tu penses ? Il serait temps de te détendre
+01:57
+Et laisser simplement faire les choses, désire-moi comme Moneypenny
+02:03
+Je commence à apprécier ta façon de te comporter
+02:05
+J'aimerais bien te tenir compagnie que ce soit pour toujours ou juste une nuit
+02:10
+Attends une minute ma belle j'ai encore un truc à te dire avant que tu partes
+02:13
+Je commence à avoir des sentiments, ça peut-être mieux que se défoncer mais pas moi je suis pas fatigué
+02:18
+Je veux juste me détendre avec toi, ça pourrait peut-être se passer autrement si tu changes d'avis
+02:23
+Si non alors c'est pas grave, reste tranquille et respecte les règles
+02:49
+Maintenant que t'as attrapé mon coeur pour la soirée
+02:52
+A m'embrasser et te trémousser, tu compliques les choses
+02:55
+Dois-je m'asseoir ou y aller plus fort ? Aide-moi à trouver ma voie
+03:00
+Maintenant que t'as attrapé mon coeur pour la soirée
+03:02
+A m'embrasser et te trémousser, tu compliques les choses
+03:05
+Dois-je m'asseoir ou y aller plus fort ? Aide-moi à trouver ma voie
+03:10
+Maintenant que t'as attrapé mon coeur pour la soirée
+03:13
+A m'embrasser et te trémousser, tu compliques les choses
+03:16
+Dois-je m'asseoir ou y aller plus fort ? Aide-moi à trouver ma voie</t>
+  </si>
+  <si>
+    <t>Young Franco - Lose control</t>
+  </si>
+  <si>
+    <t>Destin Conrad - Same mistake</t>
+  </si>
+  <si>
+    <t>Janet Jackson - Any time any place</t>
+  </si>
+  <si>
+    <t>Eric Bellinger feat Rotimi - My decision</t>
+  </si>
+  <si>
+    <t>Lucky Daye - Over</t>
+  </si>
+  <si>
+    <t>Bad bunny - Monaco</t>
+  </si>
+  <si>
+    <t>DJ Snake - Peso Pluma - Teka</t>
+  </si>
+  <si>
+    <t>Patrice Rushen - Heartache heartbrak</t>
+  </si>
+  <si>
+    <t>Franck Ocean - Lost</t>
+  </si>
+  <si>
+    <t>Teenear feat Rick Ross - Moment</t>
+  </si>
+  <si>
+    <t>Luniz - I got 5 on it</t>
+  </si>
+  <si>
+    <t>50 Cent - In da club</t>
+  </si>
+  <si>
+    <t>Junior M.A.F.I.A - Get money</t>
+  </si>
+  <si>
+    <t>Snoop Dog - Gin and juice</t>
+  </si>
+  <si>
+    <t>Xzibit - X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand master flash - The message </t>
+  </si>
+  <si>
+    <t>Buena vista social club - Chan chan</t>
+  </si>
+  <si>
+    <t>Roddy Rich - The box</t>
+  </si>
+  <si>
+    <t>Future - Mask off</t>
+  </si>
+  <si>
+    <t>Fetty wap - Trap queen</t>
+  </si>
+  <si>
+    <t>Post Malone - Rockstar</t>
+  </si>
+  <si>
+    <t>Toosii feat Khalid - Favorite song</t>
+  </si>
+  <si>
+    <t>Cherelle - Saturday love</t>
+  </si>
+  <si>
+    <t>Mtume - Juicy fruit</t>
+  </si>
+  <si>
+    <t>The Isley brothers - Between the sheets</t>
+  </si>
+  <si>
+    <t>Diana Ross - Upside down</t>
+  </si>
+  <si>
+    <t>LL Cool J feta Eminem - Murdergram Deux</t>
+  </si>
+  <si>
+    <t>Aaliyah - Miss you</t>
+  </si>
+  <si>
+    <t>Central Cee - Doja</t>
+  </si>
+  <si>
+    <t>Ckay - Nwayi</t>
+  </si>
+  <si>
+    <t>Kalash - So coman</t>
+  </si>
+  <si>
+    <t>Pop Smoke - Merci beaucoup</t>
+  </si>
+  <si>
+    <t>Jack Harlow - Like a blade of grass</t>
+  </si>
+  <si>
+    <t>Mobb deep - Hell on earth</t>
+  </si>
+  <si>
+    <t>Marvin Gaye - sexual healing</t>
+  </si>
+  <si>
+    <t>Donny Hathaway - The ghetto</t>
+  </si>
+  <si>
+    <t>Travis Scott - 4x4</t>
+  </si>
+  <si>
+    <t>DDG - The method</t>
+  </si>
+  <si>
+    <t>Big Sean - It is what it is</t>
+  </si>
+  <si>
+    <t>Future - Too fast</t>
+  </si>
+  <si>
+    <t>Bryson Tyler - Whatever she wants</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar - TV off</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar - Not like us</t>
+  </si>
+  <si>
+    <t>Sam Cooke - A change is gonna come</t>
+  </si>
+  <si>
+    <t>Earth, Wind and Fire - Let's groove</t>
+  </si>
+  <si>
+    <t>James Brown - Say it loud</t>
+  </si>
+  <si>
+    <t>Barry White - You're the the first, the last, my everything</t>
+  </si>
+  <si>
+    <t>Curtis Mayfield - Move on up</t>
+  </si>
+  <si>
+    <t>Pharrell Williams - Freedom</t>
+  </si>
+  <si>
+    <t>Rema - Soundgasm</t>
+  </si>
+  <si>
+    <t>SWV - Rain</t>
+  </si>
+  <si>
+    <t>Rihanna - Lift Me up</t>
+  </si>
+  <si>
+    <t>Amerie - One thing</t>
+  </si>
+  <si>
+    <t>Ayra Starr - Rush</t>
+  </si>
+  <si>
+    <t>Mary J.Blige - I'm going down</t>
+  </si>
+  <si>
+    <t>Bob Marley - Stir it up</t>
+  </si>
+  <si>
+    <t>Wu Tang Clan - Can it be all so simple</t>
+  </si>
+  <si>
+    <t>6Lack - Nonchalant</t>
+  </si>
+  <si>
+    <t>A$AP Rocky - LSD</t>
+  </si>
+  <si>
+    <t>Alicia Keys - If I ain't got you</t>
+  </si>
+  <si>
+    <t>Ariana Grande - 7 rings</t>
+  </si>
+  <si>
+    <t>Billie Paul - Me and Mrs Jones</t>
+  </si>
+  <si>
+    <t>Burna Boy - B. D'OR</t>
+  </si>
+  <si>
+    <t>Cardi B, Bad Bunny &amp; J Balvin - I Like It</t>
+  </si>
+  <si>
+    <t>Cheryl Lynn - Got to be real</t>
+  </si>
+  <si>
+    <t>Cypress hill - Insane in the brain</t>
+  </si>
+  <si>
+    <t>Drake - One dance</t>
+  </si>
+  <si>
+    <t>Jodeci - Cry for you</t>
+  </si>
+  <si>
+    <t>Jorja Smith - Be honest</t>
+  </si>
+  <si>
+    <t>Kelis - Caught out there</t>
+  </si>
+  <si>
+    <t>Keith Sweat - Don't stop your love</t>
+  </si>
+  <si>
+    <t>Lauryn Hill - Everything is everything</t>
+  </si>
+  <si>
+    <t>Louis Armstrong - What a wonderful world</t>
+  </si>
+  <si>
+    <t>Mac Miller - My favorite part</t>
+  </si>
+  <si>
+    <t>MC Hammer - U can't touch this</t>
+  </si>
+  <si>
+    <t>Master KG  - Jerusalema</t>
+  </si>
+  <si>
+    <t>Roy Ayers - Everybody loves the sunshine</t>
+  </si>
+  <si>
+    <t>Outkast - Hey ya</t>
+  </si>
+  <si>
+    <t>R.Kelly feat. Sparkle - Be Careful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUN DMC - King Of Rock </t>
+  </si>
+  <si>
+    <t>A Tribe Called Quest - Find a way</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3HO9H1VMMOk&amp;pp=ygUgamFuZXQgamFja3NvbiAtIGFueXRpbWUgYW55cGxhY2U%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aPN0BjVBZzU&amp;pp=ygUbeW91bmcgZnJhbmNvIC0gbG9zZSBjb250cm9s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZHincIOkvD0&amp;pp=ygUtZGVzdGluIGNvbnJhZCAtIHNhbWUgbWlzdGFrZSBmZWF0LiBhbGV4IGlzbGV5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AgrShRzs7UI&amp;pp=ygU5ZXJpYyBiZWxsaW5nZXIgZmVhdCByb3RpbWkgLSBteSBkZWNpc2lvbiAob2ZmaWNpYWwgdmlkZW8p</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ylf8gJQe8So&amp;pp=ygURTHVja3kgRGF5ZSAtIE92ZXI%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_PJvpq8uOZM&amp;pp=ygUSYmFkIGJ1bm55IC0gbW9uYWNv</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H58vbez_m4E&amp;pp=ygUca2VuZHJpY2sgbGFtYXIgLSBub3QgbGlrZSB1cw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BRjElakrB6Y&amp;pp=ygUfbWFzc2FyaSBmdCBiZWxseSBydXNoIHRoZSBmbG9vcg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-P4Vet_iAWQ&amp;pp=ygUYZGogc25ha2UgcGVzbyBwbHVtYSB0ZWth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vOEMKE3pUDE&amp;pp=ygUocGF0cmljZSBydXNoZW4gaGVhcnRhY2hlIGhlYXJ0YnJlYWsgbGl2ZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CxM-apTyHiQ&amp;pp=ygUSZnJhbmsgb2NlYW4gLSBsb3N0</t>
+  </si>
+  <si>
+    <t>Arlo Parks - Hope</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8d-blfWHSng&amp;pp=ygULQXJsbyBQYXJrcyA%3D</t>
+  </si>
+  <si>
+    <t>Sasha Keablel feat 6Lack - Take your time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ps_gB4EAD_M&amp;pp=ygUgS2FjeSBIaWxsIGZlYXQgNkxhY2sgLSBUaW1lJ3MgdXA%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bO-k4pLtngo&amp;pp=ygUfVGVlbmVhciBmZWF0IFJpY2sgUm9zcyAtIE1vbWVudA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=me3CPl_i4C4&amp;pp=ygUVTHVuaXogLSBJIGdvdCA1IG9uIGl0</t>
+  </si>
+  <si>
+    <t>Rose Royce - Car wash</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eB0aROCl530&amp;pp=ygUVUm9zZSBSb3ljZSAtIENhciB3YXNo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4oAUuzX_owA&amp;pp=ygUbUGFydHlOZXh0RG9vciAtIEZvciBDZXJ0YWlu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qm8PH4xAss&amp;pp=ygUaNTAgY2VudCAtIGluIGRhIGNsdWIgcmVtaXg%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qNbAu0IZhKQ&amp;pp=ygUMY2theSAtIG53YXlp</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vmolvYdz03Q&amp;pp=ygUaUG9wIFNtb2tlIC0gTWVyY2kgYmVhdWNvdXA%3D</t>
+  </si>
+  <si>
+    <t>Loose ends - You can't stop the rain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9ZA7z2H8GkM&amp;pp=ygUpbG9vc2UgZW5kcyB5b3UgY2FuJ3Qgc3RvcCB0aGUgcmFpbiBseXJpY3M%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0a5i-jJ77s&amp;pp=ygUjSmFjayBIYXJsb3cgLSBMaWtlIGEgYmxhZGUgb2YgZ3Jhc3M%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-lonWMzBKdU&amp;pp=ygUZTW9iYiBkZWVwIC0gSGVsbCBvbiBlYXJ0aA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=14GClBV33jQ&amp;pp=ygURS2FsYXNoIC0gU28gY29tYW4%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wEBlaMOmKV4&amp;pp=ygUic2FtIGNvb2tlIC0gYSBjaGFuZ2UgaXMgZ29ubmEgY29tZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rf8GjhXvOjU&amp;pp=ygUXQm9iIE1hcmxleSAtIFN0aXIgaXQgdXA%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ecr-y_OfL7A&amp;pp=ygUnVGhlIElzbGV5IGJyb3RoZXJzIC0gQmV0d2VlbiB0aGUgc2hlZXRz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4ILLpWbgESM&amp;pp=ygUXS2VuZHJpY2sgTGFtYXIgLSBUViBvZmY%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lrle0x_DHBM&amp;pp=ygUjRWFydGgsIFdpbmQgYW5kIEZpcmUgLSBMZXQncyBncm9vdmU%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4qaBbVJzOs4&amp;pp=ygUYVCBQYWluIC0gRG9lcyBzaGUga25vdyA_</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7m148vZDwJA&amp;pp=ygUmV3UgVGFuZyBDbGFuIC0gQ2FuIGl0IGJlIGFsbCBzbyBzaW1wbGU%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PEEhL9LaX4E&amp;pp=ygUSNkxhY2sgLSBOb25jaGFsYW50</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rjlSiASsUIs&amp;pp=ygUcTWFydmluIEdheWUgLSBzZXh1YWwgaGVhbGluZw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CJ6sHaL79J8&amp;pp=ygUSQWFsaXlhaCAtIE1pc3MgeW91</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LkIS4DpRPHY&amp;pp=ygUSVHJhdmlzIFNjb3R0IC0gNHg0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EYE5QEBOMA8&amp;pp=ygUTTXR1bWUgLSBKdWljeSBmcnVpdA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4hj1iWqoYEc&amp;pp=ygUZSmFtZXMgQnJvd24gLSBTYXkgaXQgbG91ZA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_VuJA-VQRcY&amp;pp=ygUSQ2VudHJhbCBDZWUgLSBEb2ph</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x3Y2H822cHA&amp;pp=ygUgZG9ubnkgaGF0aGF3YXkgdGhlIGdoZXR0byBseXJpY3M%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=axWqjKAF5Nw&amp;pp=ygUaVGhlIEdhbWUgLSBCb3NjbyBGcmVlc3R5bGU%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=50Tl8E0Vvms&amp;pp=ygUnTEwgQ29vbCBKIGZldGEgRW1pbmVtIC0gTXVyZGVyZ3JhbSBEZXV4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E267RO7lS-U&amp;pp=ygUbQmlnIFNlYW4gLSBJdCBpcyB3aGF0IGl0IGlz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-I8DrXXGd9E&amp;pp=ygUhQnJ5c29uIFR5bGVyIC0gV2hhdGV2ZXIgc2hlIHdhbnRz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WkHwnrr3wZM&amp;pp=ygUQRERHIC0gVGhlIG1ldGhvZA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Po0BbGMSX4g&amp;pp=ygUYRGlhbmEgUm9zcyAtIFVwc2lkZSBkb3du</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1YHDGLqH1VM&amp;pp=ygURRnV0dXJlIC0gVG9vIGZhc3Q%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=veLIo2VjXu0&amp;pp=ygU7QmFycnkgV2hpdGUgLSBZb3UncmUgdGhlIHRoZSBmaXJzdCwgdGhlIGxhc3QsIG15IGV2ZXJ5dGhpbmc%3D</t>
+  </si>
+  <si>
+    <t>Eminem ft.Skylar Grey - Temporary</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZaK9Wi5ho0o&amp;pp=ygUjIkVtaW5lbSBmdC5Ta3lsYXIgR3JleSAtIFRlbXBvcmFyeSI%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nrTkERuwdCc&amp;pp=ygUQUmVtYSAtIFNvdW5kZ2FzbQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bbqVg_23otg&amp;pp=ygUSQW1lcmllIC0gT25lIHRoaW5n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mx_OexsUI2M&amp;pp=ygUUUmloYW5uYSAtIExpZnQgTWUgdXA%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xGR9bQh-kpk&amp;pp=ygUcQ3VydGlzIE1heWZpZWxkIC0gTW92ZSBvbiB1cA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LlY90lG_Fuw&amp;pp=ygUbUGhhcnJlbGwgV2lsbGlhbXMgLSBGcmVlZG9t</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QQyXHfOy1UU&amp;pp=ygUKU1dWIC0gUmFpbg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1XmwiwQjU8E&amp;pp=ygUdTWFyeSBKLkJsaWdlIC0gSSdtIGdvaW5nIGRvd24%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=crtQSTYWtqE&amp;pp=ygURQXlyYSBTdGFyciAtIFJ1c2g%3D</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar ft.Drake - Poetic justice</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yyr2gEouEMM&amp;pp=ygUwa2VuZHJpY2sgbGFtYXIgZHJha2UgcG9ldGljIGp1c3RpY2UgaW5zdHJ1bWVudGFs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4D89Qr5vH6U&amp;pp=ygUiVG9vc2lpIGZlYXQgS2hhbGlkIC0gRmF2b3JpdGUgc29uZw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WfmTq2B31tE&amp;pp=ygUYQ2hlcmVsbGUgLSBTYXR1cmRheSBsb3Zl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UceaB4D0jpo&amp;pp=ygUWUG9zdCBNYWxvbmUgLSBSb2Nrc3Rhcg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JKEItVNlYXI&amp;pp=ygUeQmlsbGllIFBhdWwgLSBNZSBhbmQgTXJzIEpvbmVz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QYh6mYIJG2Y&amp;pp=ygUXQXJpYW5hIEdyYW5kZSAtIDcgcmluZ3M%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yNTkoLf5x5U&amp;pp=ygUTYnVybmEgYm95IC0gYi4gZCdvcg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J_8xCOSekog&amp;pp=ygUdbWFjIG1pbGxlciAtIG15IGZhdm9yaXRlIHBhcnQ%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2x86tostIKE&amp;pp=ygUfciBrZWxseSBmZWF0IHNwYXJrbGUgYmUgY2FyZWZ1bA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i_kF4zLNKio&amp;pp=ygUWZmV0dHkgd2FwIC0gdHJhcCBxdWVlbg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PivWY9wn5ps&amp;pp=ygUjbWljaGFlbCBqYWNrc29uIC0gbWFuIGluIHRoZSBtaXJyb3I%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xvZqHgFz51I&amp;pp=ygURZnV0dXJlIC0gbWFzayBvZmY%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ju8Hr50Ckwk&amp;pp=ygUgYWxpY2lhIGtleXMgLSBpZiBpIGFpbid0IGdvdCB5b3U%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gx4JEBwVlXo&amp;pp=ygUQQSRBUCBSb2NreSAtIExTRA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rBrd_3VMC3c&amp;pp=ygUobG91aXMgYXJtc3Ryb25nIC0gd2hhdCBhIHdvbmRlcmZ1bCB3b3JsZA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1ipRd0WgB0c&amp;pp=ygUgc3VtbWVyIHdhbGtlciAtIGhlYXJ0IG9mIGEgd29tYW4%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UNZqm3dxd2w&amp;pp=ygUUUm9kZHkgUmljaCAtIFRoZSBib3g%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PobrSpMwKk4&amp;pp=ygUrZ3JhbmRtYXN0ZXIgZmxhc2ggLSB0aGUgbWVzc2FnZSBsaXZlICgxOTgzKQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Iznvc-eqKpU&amp;pp=ygUUam9kZWNpIC0gY3J5IGZvciB5b3U%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tGbRZ73NvlY&amp;pp=ygUjQnVlbmEgdmlzdGEgc29jaWFsIGNsdWIgLSBDaGFuIGNoYW4%3D</t>
+  </si>
+  <si>
+    <t>Travis Scott ft.Kendrick Lamar - Goosebumps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bo1MFBdDbhE&amp;pp=ygUtIlRyYXZpcyBTY290dCBmdC5LZW5kcmljayBMYW1hciAtIEdvb3NlYnVtcHMi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xTlNMmZKwpA&amp;pp=ygUpQ2FyZGkgQiwgQmFkIEJ1bm55ICYgSiBCYWx2aW4gLSBJIExpa2UgSXQ%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yxW5yuzVi8w&amp;pp=ygUQZG9qYSBjYXQgLSB3b21hbg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RijB8wnJCN0&amp;pp=ygUiQ3lwcmVzcyBoaWxsIC0gSW5zYW5lIGluIHRoZSBicmFpbg%3D%3D</t>
+  </si>
+  <si>
+    <t>Rick Ross ft.Jay-Z, Dr Dre - 3 Kings</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r0LWT8DJfws&amp;pp=ygUlIlJpY2sgUm9zcyBmdC5KYXktWiwgRHIgRHJlIC0gMyBLaW5ncw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=54HSk7-q960&amp;pp=ygUcQ2hlcnlsIEx5bm4gLSBHb3QgdG8gYmUgcmVhbA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qJxk1leG1wY&amp;pp=ygUKWHppYml0IC0gWA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qL7zrWcv6XY&amp;pp=ygURRHJha2UgLSBPbmUgZGFuY2U%3D</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar ft.SZA - All the stars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JQbjS0_ZfJ0&amp;pp=ygUsa2VuZHJpY2sgbGFtYXIgZnQgc3phIGFsbCB0aGUgc3RhcnMgcmVhY3Rpb24%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=otCpCn0l4Wo&amp;pp=ygUkbWMgaGFtbWVyIC0gdSBjYW4ndCB0b3VjaCB0aGlzIGF1ZGlv</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2TRx2JXyWM4&amp;pp=ygUvUm95IEF5ZXJzIC0gRXZlcnlib2R5IGxvdmVzIHRoZSBzdW5zaGluZSBseXJpY3M%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fWCZse1iwE0&amp;pp=ygUZU25vb3AgRG9nIC0gR2luIGFuZCBqdWljZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hQsZUVMwEls&amp;pp=ygUXSm9yamEgU21pdGggLSBCZSBob25lc3Q%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dp45V_M4Akw&amp;pp=ygUUU1pBIC0gRHJldyBCYXJyeW1vcmU%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N3JFwd1bk4Q&amp;pp=ygUYa2VsaXMgLSBjYXVnaHQgb3V0IHRoZXJl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWgvGjAhvIw&amp;pp=ygUQb3V0a2FzdCAtIGhleSB5YQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TCM5MVJA718&amp;pp=ygUkR2lsIFNjb3R0IEhlcm9uIC0gU3Rvcm0gbXVzaWMgbHlyaWNz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fCZVL_8D048&amp;pp=ygUXTWFzdGVyIEtHICAtIEplcnVzYWxlbWE%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i3_dOWYHS7I&amp;pp=ygUmTGF1cnluIEhpbGwgLSBFdmVyeXRoaW5nIGlzIGV2ZXJ5dGhpbmc%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CzT30p1HGj8&amp;pp=ygUiS2VpdGggU3dlYXQgLSBEb24ndCBzdG9wIHlvdXIgbG92ZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D8rG_2ed1wg&amp;pp=ygUhanVuaW9yIG0uYS5mLmkuYS4gZ2V0IG1vbmV5IHJlbWl4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ki7EoH31UkM&amp;pp=ygUhQSBUcmliZSBDYWxsZWQgUXVlc3QgLSBGaW5kIGEgd2F5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qXzWlPL_TKw&amp;pp=ygUXUlVOIERNQyAtIEtpbmcgT2YgUm9jayA%3D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4110,19 +6329,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4401,15 +6617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -4573,7 +6789,7 @@
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4987,6 +7203,1137 @@
       </c>
       <c r="D41" s="2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
